--- a/Dokumentation/02-ProductBacklog.xlsx
+++ b/Dokumentation/02-ProductBacklog.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4713A3F4-E37C-4E6A-B632-203C3B496F72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67F0B06-21D7-4908-8FB3-66EAEF18ABE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="1620" windowWidth="28800" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3800" yWindow="3800" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -331,33 +331,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -471,25 +444,52 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -506,17 +506,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F5B43AE6-E019-405E-8828-609FC0551C9A}" name="Tabelle1" displayName="Tabelle1" ref="A4:E27" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F5B43AE6-E019-405E-8828-609FC0551C9A}" name="Tabelle1" displayName="Tabelle1" ref="A4:E27" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A4:E27" xr:uid="{A3433E65-A5FB-4727-949F-92E707E31C11}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E27">
     <sortCondition descending="1" ref="C4:C27"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8CABC681-BAAD-4F85-94F8-8EBB9FE4DAA8}" name="ID" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{40E5033F-0001-49AA-8150-FC15653D7B00}" name="Item" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{53841F87-1C9A-4910-8AED-3DAC0A6AE48B}" name="Priority" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{3C560E82-4951-4091-A358-5C3145585211}" name="Effort" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{36A43C61-A71A-4FFC-88B3-FB357FF9ECF7}" name="Status" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{8CABC681-BAAD-4F85-94F8-8EBB9FE4DAA8}" name="ID" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{40E5033F-0001-49AA-8150-FC15653D7B00}" name="Item" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{53841F87-1C9A-4910-8AED-3DAC0A6AE48B}" name="Priority" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{3C560E82-4951-4091-A358-5C3145585211}" name="Effort" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{36A43C61-A71A-4FFC-88B3-FB357FF9ECF7}" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
